--- a/OnBoard/data/haul_order.xlsx
+++ b/OnBoard/data/haul_order.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{318249E3-2604-4528-8864-BFBF82E4470A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9F755435-BFBC-449D-9691-714A57729AD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>day</t>
   </si>
@@ -40,28 +39,37 @@
     <t>note</t>
   </si>
   <si>
-    <t>verifica_shell</t>
-  </si>
-  <si>
-    <t>CONTINUARE A RIVEDERE I NOMI SPECIE</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
     <t>country</t>
   </si>
   <si>
-    <t>part1</t>
-  </si>
-  <si>
     <t>ITA17</t>
+  </si>
+  <si>
+    <t>peso_rapido_A</t>
+  </si>
+  <si>
+    <t>peso_rapido_D</t>
+  </si>
+  <si>
+    <t>peso_subcampione_a</t>
+  </si>
+  <si>
+    <t>peso_subcampione_D</t>
+  </si>
+  <si>
+    <t>2022_1</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -94,14 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,34 +387,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="46.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -414,230 +426,565 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44528</v>
+        <v>44889</v>
       </c>
       <c r="B2" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B3" s="1">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B4" s="1">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44889</v>
+      </c>
+      <c r="B7" s="1">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B10" s="1">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B11" s="1">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B12" s="1">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44890</v>
+      </c>
+      <c r="B14" s="1">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
